--- a/Planung_Seitenzahl.xlsx
+++ b/Planung_Seitenzahl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bswar\Desktop\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80D1A1-09C3-4555-B09E-7A89EC1CCC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5B3F61-AA4A-4B55-ACE6-5F7F54716A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">

--- a/Planung_Seitenzahl.xlsx
+++ b/Planung_Seitenzahl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bswar\Desktop\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5B3F61-AA4A-4B55-ACE6-5F7F54716A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF473CFB-327E-4455-8735-73A46E9FB3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
       </c>
       <c r="C11">
         <f>SUM(C3:C9)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Planung_Seitenzahl.xlsx
+++ b/Planung_Seitenzahl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bswar\Desktop\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF473CFB-327E-4455-8735-73A46E9FB3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F7F8A9-950E-4D39-985D-9951C0E92CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
       </c>
       <c r="C11">
         <f>SUM(C3:C9)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
